--- a/public/preprocessing/@T3E3HE3E.xlsx
+++ b/public/preprocessing/@T3E3HE3E.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>21291</v>
+        <v>25024</v>
       </c>
       <c r="C2" t="n">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">kasihan nanti tbtb kena serangan jantung cuman karena ke uwu an oknum </t>
+          <t>my eyes look so puffy rn</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['kasihan', 'nanti', 'tbtb', 'kena', 'serangan', 'jantung', 'cuman', 'karena', 'ke', 'uwu', 'an', 'oknum']</t>
+          <t>['my', 'eyes', 'look', 'so', 'puffy', 'rn']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['my', 'eyes', 'look', 'sok', 'puffy', 'rn']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['kasihan', 'tbtb', 'kena', 'serangan', 'jantung', 'cuman', 'uwu', 'an', 'oknum']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['kasihan', 'tbtb', 'kena', 'serang', 'jantung', 'cuman', 'uwu', 'an', 'oknum']</t>
+          <t>['my', 'eyes', 'look', 'sok', 'puffy', 'rn']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['my', 'eyes', 'look', 'sok', 'puffy', 'rn']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21292</v>
+        <v>25025</v>
       </c>
       <c r="C3" t="n">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>wait really huh</t>
+          <t>ada yg tau ini lanjutannya di akun mana gak pengen baca</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['wait', 'really', 'huh']</t>
+          <t>['ada', 'yg', 'tau', 'ini', 'lanjutannya', 'di', 'akun', 'mana', 'gak', 'pengen', 'baca']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['ada', 'yang', 'tau', 'ini', 'lanjutannya', 'di', 'akun', 'mana', 'tidak', 'ingin', 'baca']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['wait', 'really', 'huh']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['wait', 'really', 'huh']</t>
+          <t>['lanjutannya', 'akun', 'baca']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['lanjut', 'akun', 'baca']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>21293</v>
+        <v>25026</v>
       </c>
       <c r="C4" t="n">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>definisi malu malu meong</t>
+          <t>have  nide day tegaa</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['definisi', 'malu', 'malu', 'meong']</t>
+          <t>['have', 'nide', 'day', 'tegaa']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 4 outcomes&gt;</t>
+          <t>['have', 'nide', 'day', 'tegaa']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['definisi', 'malu', 'malu', 'meong']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['definisi', 'malu', 'malu', 'meong']</t>
+          <t>['have', 'nide', 'day', 'tegaa']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['have', 'nide', 'day', 'tegaa']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>21294</v>
+        <v>25027</v>
       </c>
       <c r="C5" t="n">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>psps</t>
+          <t>have  nice day yha ya</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['psps']</t>
+          <t>['have', 'nice', 'day', 'yha', 'ya']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['have', 'nice', 'day', 'ya', 'ya']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['psps']</t>
+          <t>&lt;FreqDist with 4 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['psps']</t>
+          <t>['have', 'nice', 'day']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['have', 'nice', 'day']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>21295</v>
+        <v>25028</v>
       </c>
       <c r="C6" t="n">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>yeah im dead dead as hell</t>
+          <t>hallo yut have  nice day yha</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['yeah', 'im', 'dead', 'dead', 'as', 'hell']</t>
+          <t>['hallo', 'yut', 'have', 'nice', 'day', 'yha']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 6 outcomes&gt;</t>
+          <t>['halo', 'ayo', 'have', 'nice', 'day', 'ya']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['yeah', 'im', 'dead', 'dead', 'as', 'hell']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['yeah', 'im', 'dead', 'dead', 'as', 'hell']</t>
+          <t>['halo', 'ayo', 'have', 'nice', 'day']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['halo', 'ayo', 'have', 'nice', 'day']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>21296</v>
+        <v>25029</v>
       </c>
       <c r="C7" t="n">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>nteiku hae betch</t>
+          <t>nteiku thank you</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['nteiku', 'hae', 'betch']</t>
+          <t>['nteiku', 'thank', 'you']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>['nteiku', 'terima, kasih', 'kamu']</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>['nteiku', 'hae', 'betch']</t>
-        </is>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['nteiku', 'hae', 'betch']</t>
+          <t>['nteiku', 'terima, kasih']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['nteiku', 'terima kasih']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,35 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>21297</v>
+        <v>25030</v>
       </c>
       <c r="C8" t="n">
-        <v>259</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>biasa masih kerja di sirkus lu gimana bre</t>
-        </is>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['biasa', 'masih', 'kerja', 'di', 'sirkus', 'lu', 'gimana', 'bre']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['kerja', 'sirkus', 'lu', 'gimana', 'bre']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['kerja', 'sirkus', 'lu', 'gimana', 'bre']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -727,34 +763,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>21298</v>
+        <v>25031</v>
       </c>
       <c r="C9" t="n">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>cocok banget min lanjutkan kutunggu info lebih lanjutnya</t>
+          <t>have  nice day yhaa</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['cocok', 'banget', 'min', 'lanjutkan', 'kutunggu', 'info', 'lebih', 'lanjutnya']</t>
+          <t>['have', 'nice', 'day', 'yhaa']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['have', 'nice', 'day', 'yhaa']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['cocok', 'banget', 'min', 'lanjutkan', 'kutunggu', 'info']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['cocok', 'banget', 'min', 'lanjut', 'tunggu', 'info']</t>
+          <t>['have', 'nice', 'day', 'yhaa']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['have', 'nice', 'day', 'yhaa']</t>
         </is>
       </c>
     </row>
@@ -763,34 +804,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>21299</v>
+        <v>25032</v>
       </c>
       <c r="C10" t="n">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>jawa sama</t>
+          <t>kok emotnya gitu</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['jawa', 'sama']</t>
+          <t>['kok', 'emotnya', 'gitu']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['kok', 'emotnya', 'begitu']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['jawa']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['jawa']</t>
+          <t>['emotnya']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['emotnya']</t>
         </is>
       </c>
     </row>
@@ -799,34 +845,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>21300</v>
+        <v>25033</v>
       </c>
       <c r="C11" t="n">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>gue mau agsjakab</t>
+          <t>morning syaah have  nice day yhaa</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['gue', 'mau', 'agsjakab']</t>
+          <t>['morning', 'syaah', 'have', 'nice', 'day', 'yhaa']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['pagi', 'syaah', 'have', 'nice', 'day', 'yhaa']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['gue', 'agsjakab']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['gue', 'agsjakab']</t>
+          <t>['pagi', 'syaah', 'have', 'nice', 'day', 'yhaa']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['pagi', 'syaah', 'have', 'nice', 'day', 'yhaa']</t>
         </is>
       </c>
     </row>
@@ -835,34 +886,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>21301</v>
+        <v>25034</v>
       </c>
       <c r="C12" t="n">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>no one absolutely no one huang ngirim gambar daging babi</t>
+          <t>hallo ri have  nice day yhaa</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['no', 'one', 'absolutely', 'no', 'one', 'huang', 'ngirim', 'gambar', 'daging', 'babi']</t>
+          <t>['hallo', 'ri', 'have', 'nice', 'day', 'yhaa']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 10 outcomes&gt;</t>
+          <t>['halo', 'ri', 'have', 'nice', 'day', 'yhaa']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['no', 'one', 'absolutely', 'no', 'one', 'huang', 'ngirim', 'gambar', 'daging', 'babi']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['no', 'one', 'absolutely', 'no', 'one', 'huang', 'ngirim', 'gambar', 'daging', 'babi']</t>
+          <t>['halo', 'ri', 'have', 'nice', 'day', 'yhaa']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['halo', 'ri', 'have', 'nice', 'day', 'yhaa']</t>
         </is>
       </c>
     </row>
@@ -871,34 +927,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>21302</v>
+        <v>25035</v>
       </c>
       <c r="C13" t="n">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>kek lambe turah astaga</t>
+          <t>have  nice day yhaa</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['kek', 'lambe', 'turah', 'astaga']</t>
+          <t>['have', 'nice', 'day', 'yhaa']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>['have', 'nice', 'day', 'yhaa']</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>['kek', 'lambe', 'turah', 'astaga']</t>
-        </is>
-      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['kek', 'lambe', 'turah', 'astaga']</t>
+          <t>['have', 'nice', 'day', 'yhaa']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['have', 'nice', 'day', 'yhaa']</t>
         </is>
       </c>
     </row>
@@ -907,30 +968,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>21303</v>
+        <v>25036</v>
       </c>
       <c r="C14" t="n">
-        <v>259</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
+        <v>299</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>morning bestie</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['morning', 'bestie']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['pagi', 'bestie']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['pagi', 'bestie']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['pagi', 'bestie']</t>
         </is>
       </c>
     </row>
@@ -939,34 +1009,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>21304</v>
+        <v>25037</v>
       </c>
       <c r="C15" t="n">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>adeknua buat gue gk pp kan bang</t>
+          <t>nteiku actually idk</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['adeknua', 'buat', 'gue', 'gk', 'pp', 'kan', 'bang']</t>
+          <t>['nteiku', 'actually', 'idk']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['nteiku', 'actually', 'gue, gak, tau']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['adeknua', 'gue', 'gk', 'pp', 'bang']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['adeknua', 'gue', 'gk', 'pp', 'bang']</t>
+          <t>['nteiku', 'actually', 'gue, gak, tau']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['nteiku', 'actually', 'gue gak tau']</t>
         </is>
       </c>
     </row>
@@ -975,34 +1050,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>21305</v>
+        <v>25038</v>
       </c>
       <c r="C16" t="n">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t xml:space="preserve"> still cant believe that these thing is the same creature</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['still', 'cant', 'believe', 'that', 'these', 'thing', 'is', 'the', 'same', 'creature']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['still', 'cant', 'believe', 'that', 'these', 'thing', 'is', 'the', 'sama', 'creature']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['still', 'cant', 'believe', 'that', 'these', 'thing', 'is', 'the', 'creature']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['still', 'cant', 'believe', 'that', 'these', 'thing', 'is', 'the', 'creature']</t>
         </is>
       </c>
     </row>
@@ -1011,34 +1091,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>21306</v>
+        <v>25039</v>
       </c>
       <c r="C17" t="n">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>anyways</t>
+          <t>nteiku yeah it kinda better now  guess</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['anyways']</t>
+          <t>['nteiku', 'yeah', 'it', 'kinda', 'better', 'now', 'guess']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['nteiku', 'ya', 'it', 'kinda', 'better', 'now', 'guess']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['anyways']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['anyways']</t>
+          <t>['nteiku', 'it', 'kinda', 'better', 'now', 'guess']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['nteiku', 'it', 'kinda', 'better', 'now', 'guess']</t>
         </is>
       </c>
     </row>
@@ -1047,34 +1132,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>21307</v>
+        <v>25040</v>
       </c>
       <c r="C18" t="n">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>kecap terpesonaaa aku terpesona</t>
+          <t>lagi capek om</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['kecap', 'terpesonaaa', 'aku', 'terpesona']</t>
+          <t>['lagi', 'capek', 'om']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['lagi', 'cape', 'om']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['kecap', 'terpesonaaa', 'terpesona']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['kecap', 'terpesonaaa', 'pesona']</t>
+          <t>['cape', 'om']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['cape', 'om']</t>
         </is>
       </c>
     </row>
@@ -1083,30 +1173,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>21308</v>
+        <v>25041</v>
       </c>
       <c r="C19" t="n">
-        <v>259</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
+        <v>299</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>its too suffocated  cant breathing normally</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['its', 'too', 'suffocated', 'cant', 'breathing', 'normally']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['ini', 'too', 'suffocated', 'cant', 'breathing', 'normally']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['too', 'suffocated', 'cant', 'breathing', 'normally']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['too', 'suffocated', 'cant', 'breathing', 'normally']</t>
         </is>
       </c>
     </row>
@@ -1115,34 +1214,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>21309</v>
+        <v>25042</v>
       </c>
       <c r="C20" t="n">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>mau aohina</t>
+          <t>rt iwahina ft hinata harem ga pendek tapi ga panjang tweet au tentang hinata yang tidak beruntung dikerjain secreto ata</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['mau', 'aohina']</t>
+          <t>['rt', 'iwahina', 'ft', 'hinata', 'harem', 'ga', 'pendek', 'tapi', 'ga', 'panjang', 'tweet', 'au', 'tentang', 'hinata', 'yang', 'tidak', 'beruntung', 'dikerjain', 'secreto', 'ata']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['rt', 'iwahina', 'ft', 'hinata', 'harem', 'tidak', 'pendek', 'tapi', 'tidak', 'panjang', 'twit', 'au', 'tentang', 'hinata', 'yang', 'tidak', 'beruntung', 'dikerjain', 'secreto', 'ata']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['aohina']</t>
+          <t>&lt;FreqDist with 17 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['aohina']</t>
+          <t>['iwahina', 'ft', 'hinata', 'harem', 'pendek', 'twit', 'au', 'hinata', 'beruntung', 'dikerjain', 'secreto', 'ata']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['iwahina', 'ft', 'hinata', 'harem', 'pendek', 'twit', 'au', 'hinata', 'untung', 'dikerjain', 'secreto', 'ata']</t>
         </is>
       </c>
     </row>
@@ -1151,34 +1255,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>21310</v>
+        <v>25043</v>
       </c>
       <c r="C21" t="n">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>masamaaaa</t>
+          <t>ushi horror ajg woylah</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['masamaaaa']</t>
+          <t>['ushi', 'horror', 'ajg', 'woylah']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['ushi', 'horor', 'anjing', 'woylah']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['masamaaaa']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['masamaaaa']</t>
+          <t>['ushi', 'horor', 'anjing', 'woylah']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['ushi', 'horor', 'anjing', 'woylah']</t>
         </is>
       </c>
     </row>
@@ -1187,34 +1296,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>21311</v>
+        <v>25044</v>
       </c>
       <c r="C22" t="n">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>mantap kan</t>
+          <t>ushiten</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['mantap', 'kan']</t>
+          <t>['ushiten']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['ushiten']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['mantap']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['mantap']</t>
+          <t>['ushiten']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['ushiten']</t>
         </is>
       </c>
     </row>
@@ -1223,34 +1337,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>21312</v>
+        <v>25045</v>
       </c>
       <c r="C23" t="n">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>otak gue udh pemanasan habis bikin prompt dadakan</t>
+          <t>shhtt</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['otak', 'gue', 'udh', 'pemanasan', 'habis', 'bikin', 'prompt', 'dadakan']</t>
+          <t>['shhtt']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['shhtt']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['otak', 'gue', 'udh', 'pemanasan', 'habis', 'prompt', 'dadakan']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['otak', 'gue', 'udh', 'panas', 'habis', 'prompt', 'dada']</t>
+          <t>['shhtt']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['shhtt']</t>
         </is>
       </c>
     </row>
@@ -1259,34 +1378,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>21313</v>
+        <v>25046</v>
       </c>
       <c r="C24" t="n">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>hi jun</t>
+          <t>gue aja belum difolbek</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['hi', 'jun']</t>
+          <t>['gue', 'aja', 'belum', 'difolbek']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['gue', 'saja', 'belum', 'difolbek']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['hi', 'jun']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['hi', 'jun']</t>
+          <t>['gue', 'difolbek']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['gue', 'difolbek']</t>
         </is>
       </c>
     </row>
@@ -1295,34 +1419,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>21314</v>
+        <v>25047</v>
       </c>
       <c r="C25" t="n">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>bokuto smile for the last time in front of akaashis grave</t>
+          <t>bau bayi au nya</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['bokuto', 'smile', 'for', 'the', 'last', 'time', 'in', 'front', 'of', 'akaashis', 'grave']</t>
+          <t>['bau', 'bayi', 'au', 'nya']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['bau', 'bayi', 'au', 'nya']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['bokuto', 'smile', 'for', 'the', 'last', 'time', 'in', 'front', 'of', 'akaashis', 'grave']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['bokuto', 'smile', 'for', 'the', 'last', 'time', 'in', 'front', 'of', 'akaashis', 'grave']</t>
+          <t>['bau', 'bayi', 'au']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['bau', 'bayi', 'au']</t>
         </is>
       </c>
     </row>
@@ -1331,34 +1460,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>21315</v>
+        <v>25048</v>
       </c>
       <c r="C26" t="n">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>kecap  sama  pergi ke taman mau piknik rencananya si  ini kan fotografer dari dulu mau moto  tapi</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['kecap', 'sama', 'pergi', 'ke', 'taman', 'mau', 'piknik', 'rencananya', 'si', 'ini', 'kan', 'fotografer', 'dari', 'dulu', 'mau', 'moto', 'tapi']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['kecap', 'pergi', 'taman', 'piknik', 'rencananya', 'fotografer', 'moto']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['kecap', 'pergi', 'taman', 'piknik', 'rencana', 'fotografer', 'moto']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1367,34 +1501,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>21316</v>
+        <v>25049</v>
       </c>
       <c r="C27" t="n">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>kita butuh aohina</t>
+          <t>thank you zef</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['kita', 'butuh', 'aohina']</t>
+          <t>['thank', 'you', 'zef']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>['terima, kasih', 'kamu', 'zef']</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>['butuh', 'aohina']</t>
-        </is>
-      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['butuh', 'aohina']</t>
+          <t>['terima, kasih', 'zef']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['terima kasih', 'zef']</t>
         </is>
       </c>
     </row>
@@ -1403,34 +1542,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>21317</v>
+        <v>25050</v>
       </c>
       <c r="C28" t="n">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> mau pergi ke tempat gedung nikahan pas mau nyampe tbtb gedungnya meledak semua tamu sama tunanga</t>
+          <t>makan dulu sakit ntar</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['mau', 'pergi', 'ke', 'tempat', 'gedung', 'nikahan', 'pas', 'mau', 'nyampe', 'tbtb', 'gedungnya', 'meledak', 'semua', 'tamu', 'sama', 'tunanga']</t>
+          <t>['makan', 'dulu', 'sakit', 'ntar']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['makan', 'dulu', 'sakit', 'nanti']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['pergi', 'gedung', 'nikahan', 'pas', 'nyampe', 'tbtb', 'gedungnya', 'meledak', 'tamu', 'tunanga']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['pergi', 'gedung', 'nikah', 'pas', 'nyampe', 'tbtb', 'gedung', 'ledak', 'tamu', 'tunanga']</t>
+          <t>['makan', 'sakit']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['makan', 'sakit']</t>
         </is>
       </c>
     </row>
@@ -1439,34 +1583,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>21318</v>
+        <v>25051</v>
       </c>
       <c r="C29" t="n">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>gk ada lagi mumpung otak gue lancar</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['gk', 'ada', 'lagi', 'mumpung', 'otak', 'gue', 'lancar']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['gk', 'mumpung', 'otak', 'gue', 'lancar']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['gk', 'mumpung', 'otak', 'gue', 'lancar']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1475,34 +1624,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>21319</v>
+        <v>25052</v>
       </c>
       <c r="C30" t="n">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>aohina berlayar ma men</t>
+          <t>makanan</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['aohina', 'berlayar', 'ma', 'men']</t>
+          <t>['makanan']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['makanan']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['aohina', 'berlayar', 'ma', 'men']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['aohina', 'layar', 'ma', 'men']</t>
+          <t>['makanan']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['makan']</t>
         </is>
       </c>
     </row>
@@ -1511,34 +1665,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>21320</v>
+        <v>25053</v>
       </c>
       <c r="C31" t="n">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>dia lgsg nanya dong lu gk ikut reuni daichi bingung dong hah reuni apaan omi lgsg nethink lgsg mik</t>
+          <t>udah kok</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['dia', 'lgsg', 'nanya', 'dong', 'lu', 'gk', 'ikut', 'reuni', 'daichi', 'bingung', 'dong', 'hah', 'reuni', 'apaan', 'omi', 'lgsg', 'nethink', 'lgsg', 'mik']</t>
+          <t>['udah', 'kok']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 19 outcomes&gt;</t>
+          <t>['sudah', 'kok']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['lgsg', 'nanya', 'lu', 'gk', 'reuni', 'daichi', 'bingung', 'hah', 'reuni', 'omi', 'lgsg', 'nethink', 'lgsg', 'mik']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['lgsg', 'nanya', 'lu', 'gk', 'reuni', 'daichi', 'bingung', 'hah', 'reuni', 'omi', 'lgsg', 'nethink', 'lgsg', 'mik']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1547,34 +1706,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>21321</v>
+        <v>25054</v>
       </c>
       <c r="C32" t="n">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">jadi hinata izin ke omi bilangnya mau kumpul reuni tapi dia bohong ternyata dia pergi ke toko hewan </t>
+          <t>rt saya tanya anda jawab qrt ya mniezz</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['jadi', 'hinata', 'izin', 'ke', 'omi', 'bilangnya', 'mau', 'kumpul', 'reuni', 'tapi', 'dia', 'bohong', 'ternyata', 'dia', 'pergi', 'ke', 'toko', 'hewan']</t>
+          <t>['rt', 'saya', 'tanya', 'anda', 'jawab', 'qrt', 'ya', 'mniezz']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'saya', 'tanya', 'anda', 'jawab', 'qrt', 'ya', 'mniezz']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['hinata', 'izin', 'omi', 'bilangnya', 'kumpul', 'reuni', 'bohong', 'pergi', 'toko', 'hewan']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['hinata', 'izin', 'omi', 'bilang', 'kumpul', 'reuni', 'bohong', 'pergi', 'toko', 'hewan']</t>
+          <t>['qrt', 'mniezz']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['qrt', 'mniezz']</t>
         </is>
       </c>
     </row>
@@ -1583,34 +1747,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>21322</v>
+        <v>25055</v>
       </c>
       <c r="C33" t="n">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>jadi mereka tuh pergi ke festival alias pasar malam pas mereka jalan dikira satpamnya tuh mereka ana</t>
+          <t>udh makan kah</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['jadi', 'mereka', 'tuh', 'pergi', 'ke', 'festival', 'alias', 'pasar', 'malam', 'pas', 'mereka', 'jalan', 'dikira', 'satpamnya', 'tuh', 'mereka', 'ana']</t>
+          <t>['udh', 'makan', 'kah']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
+          <t>['sudah', 'makan', 'kah']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['pergi', 'festival', 'alias', 'pasar', 'malam', 'pas', 'jalan', 'satpamnya', 'ana']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['pergi', 'festival', 'alias', 'pasar', 'malam', 'pas', 'jalan', 'satpam', 'ana']</t>
+          <t>['makan', 'kah']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['makan', 'kah']</t>
         </is>
       </c>
     </row>
@@ -1619,30 +1788,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>21323</v>
+        <v>25056</v>
       </c>
       <c r="C34" t="n">
-        <v>259</v>
-      </c>
-      <c r="D34" t="inlineStr"/>
+        <v>299</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> hope so</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['hope', 'so']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['hope', 'sok']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['hope', 'sok']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['hope', 'sok']</t>
         </is>
       </c>
     </row>
@@ -1651,34 +1829,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>21324</v>
+        <v>25057</v>
       </c>
       <c r="C35" t="n">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">beuh matanya aone silau men sambutan resepsionis yg baru cerah banget senyumannya baioh hallo </t>
+          <t>really  hope so</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['beuh', 'matanya', 'aone', 'silau', 'men', 'sambutan', 'resepsionis', 'yg', 'baru', 'cerah', 'banget', 'senyumannya', 'baioh', 'hallo']</t>
+          <t>['really', 'hope', 'so']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['really', 'hope', 'sok']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['beuh', 'matanya', 'aone', 'silau', 'men', 'sambutan', 'resepsionis', 'cerah', 'banget', 'senyumannya', 'baioh', 'hallo']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['beuh', 'mata', 'aone', 'silau', 'men', 'sambut', 'resepsionis', 'cerah', 'banget', 'senyum', 'baioh', 'hallo']</t>
+          <t>['really', 'hope', 'sok']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['really', 'hope', 'sok']</t>
         </is>
       </c>
     </row>
@@ -1687,34 +1870,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>21325</v>
+        <v>25058</v>
       </c>
       <c r="C36" t="n">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>aohina mereka pertama kali ketemuan itu di penangkaran hewan aone niatnya mau beli kura kura lag</t>
+          <t>everything going to be okay right</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['aohina', 'mereka', 'pertama', 'kali', 'ketemuan', 'itu', 'di', 'penangkaran', 'hewan', 'aone', 'niatnya', 'mau', 'beli', 'kura', 'kura', 'lag']</t>
+          <t>['everything', 'going', 'to', 'be', 'okay', 'right']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['everything', 'pergi', 'to', 'be', 'ok', 'right']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['aohina', 'kali', 'ketemuan', 'penangkaran', 'hewan', 'aone', 'niatnya', 'beli', 'kura', 'kura', 'lag']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['aohina', 'kali', 'ketemu', 'tangkar', 'hewan', 'aone', 'niat', 'beli', 'kura', 'kura', 'lag']</t>
+          <t>['everything', 'pergi', 'to', 'be', 'ok', 'right']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['everything', 'pergi', 'to', 'be', 'ok', 'right']</t>
         </is>
       </c>
     </row>
@@ -1723,34 +1911,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>21326</v>
+        <v>25059</v>
       </c>
       <c r="C37" t="n">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>bgst</t>
+          <t>kinda udh makan</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['bgst']</t>
+          <t>['kinda', 'udh', 'makan']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['kinda', 'sudah', 'makan']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['bgst']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['bgst']</t>
+          <t>['kinda', 'makan']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['kinda', 'makan']</t>
         </is>
       </c>
     </row>
@@ -1759,34 +1952,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>21327</v>
+        <v>25060</v>
       </c>
       <c r="C38" t="n">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>up lagi</t>
+          <t>hello guys how is it going</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['up', 'lagi']</t>
+          <t>['hello', 'guys', 'how', 'is', 'it', 'going']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['halo', 'guys', 'how', 'is', 'it', 'pergi']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['up']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['up']</t>
+          <t>['halo', 'guys', 'how', 'is', 'it', 'pergi']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['halo', 'guys', 'how', 'is', 'it', 'pergi']</t>
         </is>
       </c>
     </row>
@@ -1795,34 +1993,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>21328</v>
+        <v>25061</v>
       </c>
       <c r="C39" t="n">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>jumat ntahlah</t>
+          <t>in mood for making miyas prompt</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['jumat', 'ntahlah']</t>
+          <t>['in', 'mood', 'for', 'making', 'miyas', 'prompt']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['in', 'suasana, hati', 'for', 'making', 'miyas', 'prompt']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['jumat', 'ntahlah']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['jumat', 'ntahlah']</t>
+          <t>['in', 'suasana, hati', 'for', 'making', 'miyas', 'prompt']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['in', 'suasana hati', 'for', 'making', 'miyas', 'prompt']</t>
         </is>
       </c>
     </row>
@@ -1831,34 +2034,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>21329</v>
+        <v>25062</v>
       </c>
       <c r="C40" t="n">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>arra</t>
+          <t>kagak</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['arra']</t>
+          <t>['kagak']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>['tidak']</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>['arra']</t>
-        </is>
-      </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['arra']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1867,34 +2075,2487 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>21330</v>
+        <v>25063</v>
       </c>
       <c r="C41" t="n">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>plis enak banget itu</t>
+          <t>rt kaguya</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['plis', 'enak', 'banget', 'itu']</t>
+          <t>['rt', 'kaguya']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>['rt', 'kaguya']</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>['kaguya']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['kaguya']</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>25064</v>
+      </c>
+      <c r="C42" t="n">
+        <v>299</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>im this close to having  breakdown</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>['im', 'this', 'close', 'to', 'having', 'breakdown']</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>['im', 'this', 'close', 'to', 'having', 'breakdown']</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>['im', 'this', 'close', 'to', 'having', 'breakdown']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['im', 'this', 'close', 'to', 'having', 'breakdown']</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>25065</v>
+      </c>
+      <c r="C43" t="n">
+        <v>299</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>25066</v>
+      </c>
+      <c r="C44" t="n">
+        <v>299</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>okiee</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>['okiee']</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>['okiee']</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>['okiee']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['okiee']</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>25067</v>
+      </c>
+      <c r="C45" t="n">
+        <v>299</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> mean make the floor not slippery cos sometimes that kind of bathroom really slippery and quite dangerous</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>['mean', 'make', 'the', 'floor', 'not', 'slippery', 'cos', 'sometimes', 'that', 'kind', 'of', 'bathroom', 'really', 'slippery', 'and', 'quite', 'dangerous']</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>['mean', 'make', 'the', 'floor', 'not', 'slippery', 'cos', 'sometimes', 'that', 'kind', 'of', 'bathroom', 'really', 'slippery', 'and', 'quite', 'dangerous']</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>['mean', 'make', 'the', 'floor', 'not', 'slippery', 'cos', 'sometimes', 'that', 'kind', 'of', 'bathroom', 'really', 'slippery', 'and', 'quite', 'dangerous']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['mean', 'make', 'the', 'floor', 'not', 'slippery', 'cos', 'sometimes', 'that', 'kind', 'of', 'bathroom', 'really', 'slippery', 'and', 'quite', 'dangerous']</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>25068</v>
+      </c>
+      <c r="C46" t="n">
+        <v>299</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>make it the floor not slippery</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>['make', 'it', 'the', 'floor', 'not', 'slippery']</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>['make', 'it', 'the', 'floor', 'not', 'slippery']</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>['make', 'it', 'the', 'floor', 'not', 'slippery']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['make', 'it', 'the', 'floor', 'not', 'slippery']</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>25069</v>
+      </c>
+      <c r="C47" t="n">
+        <v>299</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>visualnya itu lho anak kembar banget</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>['visualnya', 'itu', 'lho', 'anak', 'kembar', 'banget']</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>['visualisasinya', 'itu', 'lo', 'anak', 'kembar', 'banget']</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>['visualisasinya', 'lo', 'anak', 'kembar', 'banget']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['visualisasi', 'lo', 'anak', 'kembar', 'banget']</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>25070</v>
+      </c>
+      <c r="C48" t="n">
+        <v>299</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>yakaaaan</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>['yakaaaan']</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>['yakaaaan']</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>['yakaaaan']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['yakaaaan']</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>25071</v>
+      </c>
+      <c r="C49" t="n">
+        <v>299</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>apanya</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>['apanya']</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>['apanya']</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>['apanya']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['apa']</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>25072</v>
+      </c>
+      <c r="C50" t="n">
+        <v>299</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>25073</v>
+      </c>
+      <c r="C51" t="n">
+        <v>299</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>['no']</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>['no']</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>['no']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['no']</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>25074</v>
+      </c>
+      <c r="C52" t="n">
+        <v>299</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> miss that song</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>['miss', 'that', 'song']</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>['miss', 'that', 'song']</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>['miss', 'that', 'song']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['miss', 'that', 'song']</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>25075</v>
+      </c>
+      <c r="C53" t="n">
+        <v>299</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>yuk kita main lets get rich bersama teman semua</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>['yuk', 'kita', 'main', 'lets', 'get', 'rich', 'bersama', 'teman', 'semua']</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>['yuk', 'kita', 'main', 'lets', 'get', 'rich', 'bersama', 'teman', 'semua']</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>['yuk', 'main', 'lets', 'get', 'rich', 'teman']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['yuk', 'main', 'lets', 'get', 'rich', 'teman']</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>25076</v>
+      </c>
+      <c r="C54" t="n">
+        <v>299</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>wait theyre not</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>['wait', 'theyre', 'not']</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>['tunggu', 'theyre', 'not']</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>['tunggu', 'theyre', 'not']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['tunggu', 'theyre', 'not']</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>25077</v>
+      </c>
+      <c r="C55" t="n">
+        <v>299</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>yup</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>['yup']</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>['iya']</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>['iya']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['iya']</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>25078</v>
+      </c>
+      <c r="C56" t="n">
+        <v>299</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>rt imman are  okay can we change the topic before  cry</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>['rt', 'imman', 'are', 'okay', 'can', 'we', 'change', 'the', 'topic', 'before', 'cry']</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>['rt', 'imman', 'are', 'ok', 'can', 'we', 'change', 'the', 'topic', 'sebelum', 'cry']</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>['imman', 'are', 'ok', 'can', 'we', 'change', 'the', 'topic', 'cry']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['imman', 'are', 'ok', 'can', 'we', 'change', 'the', 'topic', 'cry']</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>25079</v>
+      </c>
+      <c r="C57" t="n">
+        <v>299</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>wait for me bestie</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>['wait', 'for', 'me', 'bestie']</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>['tunggu', 'for', 'me', 'bestie']</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>['plis', 'enak', 'banget']</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>['plis', 'enak', 'banget']</t>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>['tunggu', 'for', 'me', 'bestie']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['tunggu', 'for', 'me', 'bestie']</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>25080</v>
+      </c>
+      <c r="C58" t="n">
+        <v>299</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>['yes']</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>['iya']</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>['iya']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['iya']</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>25081</v>
+      </c>
+      <c r="C59" t="n">
+        <v>299</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>astagfirullah kamu berdosa drag</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>['astagfirullah', 'kamu', 'berdosa', 'drag']</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>['astagfirullah', 'kamu', 'berdosa', 'drag']</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>['astagfirullah', 'berdosa', 'drag']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['astagfirullah', 'dosa', 'drag']</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>25082</v>
+      </c>
+      <c r="C60" t="n">
+        <v>299</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>not me making  photoshoot with cimory squeeze</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>['not', 'me', 'making', 'photoshoot', 'with', 'cimory', 'squeeze']</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>['not', 'me', 'making', 'photoshoot', 'dengan', 'cimory', 'squeeze']</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>['not', 'me', 'making', 'photoshoot', 'cimory', 'squeeze']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['not', 'me', 'making', 'photoshoot', 'cimory', 'squeeze']</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>25083</v>
+      </c>
+      <c r="C61" t="n">
+        <v>299</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>gk tau gue lupa tahun yg lalu itu</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>['gk', 'tau', 'gue', 'lupa', 'tahun', 'yg', 'lalu', 'itu']</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>['tidak', 'tau', 'gue', 'lupa', 'tahun', 'yang', 'lalu', 'itu']</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>['gue', 'lupa']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['gue', 'lupa']</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>25084</v>
+      </c>
+      <c r="C62" t="n">
+        <v>299</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>mangga dua</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>['mangga', 'dua']</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>['mangga', 'dua']</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>['mangga']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['mangga']</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>25085</v>
+      </c>
+      <c r="C63" t="n">
+        <v>299</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>lucu banget gue teriak</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>['lucu', 'banget', 'gue', 'teriak']</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>['lucu', 'banget', 'gue', 'teriak']</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>['lucu', 'banget', 'gue', 'teriak']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['lucu', 'banget', 'gue', 'teriak']</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>25086</v>
+      </c>
+      <c r="C64" t="n">
+        <v>299</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>rt its been  while they dont hang out together like this daikita short thread au</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>['rt', 'its', 'been', 'while', 'they', 'dont', 'hang', 'out', 'together', 'like', 'this', 'daikita', 'short', 'thread', 'au']</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>['rt', 'ini', 'been', 'ketika', 'they', 'do, not', 'hang', 'out', 'together', 'like', 'this', 'daikita', 'short', 'thread', 'au']</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>['been', 'they', 'do, not', 'hang', 'out', 'together', 'like', 'this', 'daikita', 'short', 'thread', 'au']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['been', 'they', 'do not', 'hang', 'out', 'together', 'like', 'this', 'daikita', 'short', 'thread', 'au']</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>25087</v>
+      </c>
+      <c r="C65" t="n">
+        <v>299</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>lowkey wanna make  thread for ushikita au</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>['lowkey', 'wan', 'na', 'make', 'thread', 'for', 'ushikita', 'au']</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>['lowkey', 'wan', 'na', 'make', 'thread', 'for', 'ushikita', 'au']</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>['lowkey', 'wan', 'na', 'make', 'thread', 'for', 'ushikita', 'au']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['lowkey', 'wan', 'na', 'make', 'thread', 'for', 'ushikita', 'au']</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>25088</v>
+      </c>
+      <c r="C66" t="n">
+        <v>299</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>gue baru bangun mata gue kek bengkak anjer</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>['gue', 'baru', 'bangun', 'mata', 'gue', 'kek', 'bengkak', 'anjer']</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>['gue', 'baru', 'bangun', 'mata', 'gue', 'kayak', 'bengkak', 'anjir']</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>['gue', 'bangun', 'mata', 'gue', 'kayak', 'bengkak', 'anjir']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['gue', 'bangun', 'mata', 'gue', 'kayak', 'bengkak', 'anjir']</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>25089</v>
+      </c>
+      <c r="C67" t="n">
+        <v>299</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>['rt']</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>['rt']</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>25090</v>
+      </c>
+      <c r="C68" t="n">
+        <v>299</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>also anyo to miya twins kn cumn ulsn</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>['also', 'anyo', 'to', 'miya', 'twins', 'kn', 'cumn', 'ulsn']</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>['also', 'anyo', 'to', 'miya', 'kembar', 'kan', 'cuman', 'ulsn']</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>['also', 'anyo', 'to', 'miya', 'kembar', 'cuman', 'ulsn']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['also', 'anyo', 'to', 'miya', 'kembar', 'cuman', 'ulsn']</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>25091</v>
+      </c>
+      <c r="C69" t="n">
+        <v>299</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>heeeeey</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>['heeeeey']</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>['heeeeey']</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>['heeeeey']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['heeeeey']</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>25092</v>
+      </c>
+      <c r="C70" t="n">
+        <v>299</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>indahnya pemandangan</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>['indahnya', 'pemandangan']</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>['indahnya', 'pemandangan']</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>['indahnya', 'pemandangan']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['indah', 'pandang']</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>25093</v>
+      </c>
+      <c r="C71" t="n">
+        <v>299</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>rt  happy belated birthday to beel  hope he eats to his hearts content</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>['rt', 'happy', 'belated', 'birthday', 'to', 'beel', 'hope', 'he', 'eats', 'to', 'his', 'hearts', 'content']</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>['rt', 'happy', 'belated', 'birthday', 'to', 'beel', 'hope', 'he', 'eats', 'to', 'his', 'hearts', 'content']</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>['happy', 'belated', 'birthday', 'to', 'beel', 'hope', 'he', 'eats', 'to', 'his', 'hearts', 'content']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['happy', 'belated', 'birthday', 'to', 'beel', 'hope', 'he', 'eats', 'to', 'his', 'hearts', 'content']</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>25094</v>
+      </c>
+      <c r="C72" t="n">
+        <v>299</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>nder mau tag</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>['nder', 'mau', 'tag']</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>['nder', 'mau', 'tag']</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>['nder', 'tag']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['nder', 'tag']</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>25095</v>
+      </c>
+      <c r="C73" t="n">
+        <v>299</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>suara ikan garang gimnaa ya</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>['suara', 'ikan', 'garang', 'gimnaa', 'ya']</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>['suara', 'ikan', 'garang', 'gimnaa', 'ya']</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>['suara', 'ikan', 'garang', 'gimnaa']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['suara', 'ikan', 'garang', 'gimnaa']</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>25096</v>
+      </c>
+      <c r="C74" t="n">
+        <v>299</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>hinata kek merk barang tapi gue lupa apa</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>['hinata', 'kek', 'merk', 'barang', 'tapi', 'gue', 'lupa', 'apa']</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>['hinata', 'kayak', 'merek', 'barang', 'tapi', 'gue', 'lupa', 'apa']</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>['hinata', 'kayak', 'merek', 'barang', 'gue', 'lupa']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['hinata', 'kayak', 'merek', 'barang', 'gue', 'lupa']</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>25097</v>
+      </c>
+      <c r="C75" t="n">
+        <v>299</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>eh yg hilang makdudnya</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>['eh', 'yg', 'hilang', 'makdudnya']</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>['eh', 'yang', 'hilang', 'makdudnya']</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>['eh', 'hilang', 'makdudnya']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['eh', 'hilang', 'makdudnya']</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>25098</v>
+      </c>
+      <c r="C76" t="n">
+        <v>299</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>saudara yg tertukar</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>['saudara', 'yg', 'tertukar']</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>['saudara', 'yang', 'tertukar']</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>['saudara', 'tertukar']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['saudara', 'tukar']</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>25099</v>
+      </c>
+      <c r="C77" t="n">
+        <v>299</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>nah kan</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>['nah', 'kan']</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>['nah', 'kan']</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>25100</v>
+      </c>
+      <c r="C78" t="n">
+        <v>299</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>toji</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>['toji']</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>['toji']</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>['toji']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['toji']</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>25101</v>
+      </c>
+      <c r="C79" t="n">
+        <v>299</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>apaan anoa</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>['apaan', 'anoa']</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>['apaan', 'anoa']</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>['anoa']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['anoa']</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>25102</v>
+      </c>
+      <c r="C80" t="n">
+        <v>299</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>caring other people</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>['caring', 'other', 'people']</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>['caring', 'other', 'people']</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>['caring', 'other', 'people']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['caring', 'other', 'people']</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>25103</v>
+      </c>
+      <c r="C81" t="n">
+        <v>299</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>nteiku maling saja not pp</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>['nteiku', 'maling', 'saja', 'not', 'pp']</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>['nteiku', 'maling', 'saja', 'not', 'pp']</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>['nteiku', 'maling', 'not', 'pp']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['nteiku', 'maling', 'not', 'pp']</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>25104</v>
+      </c>
+      <c r="C82" t="n">
+        <v>299</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>batu nisan neko nyan</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>['batu', 'nisan', 'neko', 'nyan']</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>['batu', 'nisan', 'macam', 'nyan']</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>['batu', 'nisan', 'nyan']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['batu', 'nisan', 'nyan']</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>25105</v>
+      </c>
+      <c r="C83" t="n">
+        <v>299</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>batu nisan nyan</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>['batu', 'nisan', 'nyan']</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>['batu', 'nisan', 'nyan']</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>['batu', 'nisan', 'nyan']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['batu', 'nisan', 'nyan']</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>25106</v>
+      </c>
+      <c r="C84" t="n">
+        <v>299</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>batu nisan nyan</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>['batu', 'nisan', 'nyan']</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>['batu', 'nisan', 'nyan']</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>['batu', 'nisan', 'nyan']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['batu', 'nisan', 'nyan']</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>25107</v>
+      </c>
+      <c r="C85" t="n">
+        <v>299</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>['rt']</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>['rt']</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>25108</v>
+      </c>
+      <c r="C86" t="n">
+        <v>299</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>jadi lagu anthems</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>['jadi', 'lagu', 'anthems']</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>['jadi', 'lagu', 'anthems']</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>['lagu', 'anthems']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['lagu', 'anthems']</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>25109</v>
+      </c>
+      <c r="C87" t="n">
+        <v>299</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>oh yes</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>['oh', 'yes']</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>['oh', 'iya']</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>['oh', 'iya']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['oh', 'iya']</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>25110</v>
+      </c>
+      <c r="C88" t="n">
+        <v>299</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>['and']</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>['and']</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>['and']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['and']</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>25111</v>
+      </c>
+      <c r="C89" t="n">
+        <v>299</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>batu nisan nyan</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>['batu', 'nisan', 'nyan']</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>['batu', 'nisan', 'nyan']</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>['batu', 'nisan', 'nyan']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['batu', 'nisan', 'nyan']</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>25112</v>
+      </c>
+      <c r="C90" t="n">
+        <v>299</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>rt halu toji wanna help me with the drive lessons you can be the driver</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>['rt', 'halu', 'toji', 'wan', 'na', 'help', 'me', 'with', 'the', 'drive', 'lessons', 'you', 'can', 'be', 'the', 'driver']</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>['rt', 'halu', 'toji', 'wan', 'na', 'help', 'me', 'dengan', 'the', 'drive', 'lessons', 'kamu', 'can', 'be', 'the', 'driver']</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>['halu', 'toji', 'wan', 'na', 'help', 'me', 'the', 'drive', 'lessons', 'can', 'be', 'the', 'driver']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['halu', 'toji', 'wan', 'na', 'help', 'me', 'the', 'drive', 'lessons', 'can', 'be', 'the', 'driver']</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>25113</v>
+      </c>
+      <c r="C91" t="n">
+        <v>299</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> bet hes such  good drive</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>['bet', 'hes', 'such', 'good', 'drive']</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>['banget', 'hes', 'such', 'good', 'drive']</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>['banget', 'hes', 'such', 'good', 'drive']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['banget', 'hes', 'such', 'good', 'drive']</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>25114</v>
+      </c>
+      <c r="C92" t="n">
+        <v>299</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>capek</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>['capek']</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>['cape']</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>['cape']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['cape']</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>25115</v>
+      </c>
+      <c r="C93" t="n">
+        <v>299</v>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>25116</v>
+      </c>
+      <c r="C94" t="n">
+        <v>299</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>makasiih</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>['makasiih']</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>['makasiih']</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>['makasiih']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['makasiih']</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>25117</v>
+      </c>
+      <c r="C95" t="n">
+        <v>299</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>lah gue ngasih prompt fara tbtb ngomong gitu gue ketawa anjer</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>['lah', 'gue', 'ngasih', 'prompt', 'fara', 'tbtb', 'ngomong', 'gitu', 'gue', 'ketawa', 'anjer']</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>['lah', 'gue', 'memberi', 'prompt', 'fara', 'tiba, tiba', 'berbicara', 'begitu', 'gue', 'tertawa', 'anjir']</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>['gue', 'prompt', 'fara', 'tiba, tiba', 'berbicara', 'gue', 'tertawa', 'anjir']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['gue', 'prompt', 'fara', 'tiba tiba', 'bicara', 'gue', 'tertawa', 'anjir']</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>25118</v>
+      </c>
+      <c r="C96" t="n">
+        <v>299</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>capek sama nisan arigato</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>['capek', 'sama', 'nisan', 'arigato']</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>['cape', 'sama', 'nisan', 'arigato']</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>['cape', 'nisan', 'arigato']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['cape', 'nisan', 'arigato']</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>25119</v>
+      </c>
+      <c r="C97" t="n">
+        <v>299</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>ni san arigato nya</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>['ni', 'san', 'arigato', 'nya']</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>['nih', 'san', 'arigato', 'nya']</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>['san', 'arigato']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['san', 'arigato']</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>25120</v>
+      </c>
+      <c r="C98" t="n">
+        <v>299</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>ini mau ngirim beb</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>['ini', 'mau', 'ngirim', 'beb']</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>['ini', 'mau', 'mengirim', 'sayang']</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>['mengirim', 'sayang']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['kirim', 'sayang']</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>25121</v>
+      </c>
+      <c r="C99" t="n">
+        <v>299</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>atsumu adalah anak yang baik dia selalu menepati janjinya keren sekali</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>['atsumu', 'adalah', 'anak', 'yang', 'baik', 'dia', 'selalu', 'menepati', 'janjinya', 'keren', 'sekali']</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>['atsumu', 'adalah', 'anak', 'yang', 'baik', 'dia', 'selalu', 'menepati', 'janjinya', 'keren', 'sekali']</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>['atsumu', 'anak', 'menepati', 'janjinya', 'keren']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['atsumu', 'anak', 'tepat', 'janji', 'keren']</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>25122</v>
+      </c>
+      <c r="C100" t="n">
+        <v>299</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>rt dulu kau pernah ucap janji yang kuyakin takkan pudar benar atsumu bukan orang yang suka ingkar janji pas dia janji</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>['rt', 'dulu', 'kau', 'pernah', 'ucap', 'janji', 'yang', 'kuyakin', 'takkan', 'pudar', 'benar', 'atsumu', 'bukan', 'orang', 'yang', 'suka', 'ingkar', 'janji', 'pas', 'dia', 'janji']</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>['rt', 'dulu', 'kamu', 'pernah', 'ucap', 'janji', 'yang', 'kuyakin', 'tak, akan', 'pudar', 'benar', 'atsumu', 'bukan', 'orang', 'yang', 'suka', 'ingkar', 'janji', 'pas', 'dia', 'janji']</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 18 samples and 21 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>['janji', 'kuyakin', 'tak, akan', 'pudar', 'atsumu', 'orang', 'suka', 'ingkar', 'janji', 'pas', 'janji']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['janji', 'yakin', 'tak akan', 'pudar', 'atsumu', 'orang', 'suka', 'ingkar', 'janji', 'pas', 'janji']</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>25123</v>
+      </c>
+      <c r="C101" t="n">
+        <v>299</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>emang keren</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>['emang', 'keren']</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>['memang', 'keren']</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>['keren']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['keren']</t>
         </is>
       </c>
     </row>
